--- a/Load_Profile_Range.xlsx
+++ b/Load_Profile_Range.xlsx
@@ -16,7 +16,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="27">
   <si>
-    <t>Total Load Profile for All Users for: 2023-02-01 to 2023-02-15 (Mthembanji)</t>
+    <t>Total Load Profile for All Users for: 2023-04-01 to 2023-04-10 (Mthembanji)</t>
   </si>
   <si>
     <t>Time</t>
@@ -466,7 +466,7 @@
         <v>3</v>
       </c>
       <c r="B3">
-        <v>0.6149225617071429</v>
+        <v>0.5261403433555556</v>
       </c>
     </row>
     <row r="4" spans="1:3">
@@ -474,7 +474,7 @@
         <v>4</v>
       </c>
       <c r="B4">
-        <v>0.5992413373071429</v>
+        <v>0.5112607137222223</v>
       </c>
     </row>
     <row r="5" spans="1:3">
@@ -482,7 +482,7 @@
         <v>5</v>
       </c>
       <c r="B5">
-        <v>0.5572976529785715</v>
+        <v>0.4991165459555556</v>
       </c>
     </row>
     <row r="6" spans="1:3">
@@ -490,7 +490,7 @@
         <v>6</v>
       </c>
       <c r="B6">
-        <v>0.4484973412714286</v>
+        <v>0.4652832126222223</v>
       </c>
     </row>
     <row r="7" spans="1:3">
@@ -498,7 +498,7 @@
         <v>7</v>
       </c>
       <c r="B7">
-        <v>0.2673164489714285</v>
+        <v>0.3075239533666667</v>
       </c>
     </row>
     <row r="8" spans="1:3">
@@ -506,7 +506,7 @@
         <v>8</v>
       </c>
       <c r="B8">
-        <v>0.2787001485785714</v>
+        <v>0.3216342544</v>
       </c>
     </row>
     <row r="9" spans="1:3">
@@ -514,7 +514,7 @@
         <v>9</v>
       </c>
       <c r="B9">
-        <v>0.2574709517285715</v>
+        <v>0.3199110681222223</v>
       </c>
     </row>
     <row r="10" spans="1:3">
@@ -522,7 +522,7 @@
         <v>10</v>
       </c>
       <c r="B10">
-        <v>0.2703794742571429</v>
+        <v>0.3560856042</v>
       </c>
     </row>
     <row r="11" spans="1:3">
@@ -530,7 +530,7 @@
         <v>11</v>
       </c>
       <c r="B11">
-        <v>0.2912461738142857</v>
+        <v>0.3899155148777778</v>
       </c>
     </row>
     <row r="12" spans="1:3">
@@ -538,7 +538,7 @@
         <v>12</v>
       </c>
       <c r="B12">
-        <v>0.3208840682142858</v>
+        <v>0.4454676524444445</v>
       </c>
     </row>
     <row r="13" spans="1:3">
@@ -546,7 +546,7 @@
         <v>13</v>
       </c>
       <c r="B13">
-        <v>0.3429508361642858</v>
+        <v>0.4353855452777778</v>
       </c>
     </row>
     <row r="14" spans="1:3">
@@ -554,7 +554,7 @@
         <v>14</v>
       </c>
       <c r="B14">
-        <v>0.4038433462071429</v>
+        <v>0.399966665888889</v>
       </c>
     </row>
     <row r="15" spans="1:3">
@@ -562,7 +562,7 @@
         <v>15</v>
       </c>
       <c r="B15">
-        <v>0.4316898660428571</v>
+        <v>0.4285519508888889</v>
       </c>
     </row>
     <row r="16" spans="1:3">
@@ -570,7 +570,7 @@
         <v>16</v>
       </c>
       <c r="B16">
-        <v>0.4430563689928572</v>
+        <v>0.4388517595333333</v>
       </c>
     </row>
     <row r="17" spans="1:2">
@@ -578,7 +578,7 @@
         <v>17</v>
       </c>
       <c r="B17">
-        <v>0.4466725354285714</v>
+        <v>0.4388029449888889</v>
       </c>
     </row>
     <row r="18" spans="1:2">
@@ -586,7 +586,7 @@
         <v>18</v>
       </c>
       <c r="B18">
-        <v>0.4315875371857142</v>
+        <v>0.5302017151666666</v>
       </c>
     </row>
     <row r="19" spans="1:2">
@@ -594,7 +594,7 @@
         <v>19</v>
       </c>
       <c r="B19">
-        <v>0.7562949742785714</v>
+        <v>1.2324648835</v>
       </c>
     </row>
     <row r="20" spans="1:2">
@@ -602,7 +602,7 @@
         <v>20</v>
       </c>
       <c r="B20">
-        <v>1.352507803471428</v>
+        <v>1.441793955622222</v>
       </c>
     </row>
     <row r="21" spans="1:2">
@@ -610,7 +610,7 @@
         <v>21</v>
       </c>
       <c r="B21">
-        <v>1.340284160542857</v>
+        <v>1.222121927677778</v>
       </c>
     </row>
     <row r="22" spans="1:2">
@@ -618,7 +618,7 @@
         <v>22</v>
       </c>
       <c r="B22">
-        <v>1.145866802835714</v>
+        <v>1.010358723111111</v>
       </c>
     </row>
     <row r="23" spans="1:2">
@@ -626,7 +626,7 @@
         <v>23</v>
       </c>
       <c r="B23">
-        <v>0.9019617405285715</v>
+        <v>0.7397761072222223</v>
       </c>
     </row>
     <row r="24" spans="1:2">
@@ -634,7 +634,7 @@
         <v>24</v>
       </c>
       <c r="B24">
-        <v>0.7336695102571428</v>
+        <v>0.6040437839222224</v>
       </c>
     </row>
     <row r="25" spans="1:2">
@@ -642,7 +642,7 @@
         <v>25</v>
       </c>
       <c r="B25">
-        <v>0.6769072615071429</v>
+        <v>0.5565159829555556</v>
       </c>
     </row>
     <row r="26" spans="1:2">
@@ -650,7 +650,7 @@
         <v>26</v>
       </c>
       <c r="B26">
-        <v>0.6350284086571428</v>
+        <v>0.5200575150777778</v>
       </c>
     </row>
   </sheetData>

--- a/Load_Profile_Range.xlsx
+++ b/Load_Profile_Range.xlsx
@@ -16,7 +16,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="27">
   <si>
-    <t>Total Load Profile for All Users for: 2023-04-01 to 2023-04-10 (Mthembanji)</t>
+    <t>Total Load Profile for All Users for: 2025-03-01 to 2025-03-03 (Mthembanji)</t>
   </si>
   <si>
     <t>Time</t>
@@ -466,7 +466,7 @@
         <v>3</v>
       </c>
       <c r="B3">
-        <v>0.5261403433555556</v>
+        <v>0.4387077</v>
       </c>
     </row>
     <row r="4" spans="1:3">
@@ -474,7 +474,7 @@
         <v>4</v>
       </c>
       <c r="B4">
-        <v>0.5112607137222223</v>
+        <v>0.4249936521</v>
       </c>
     </row>
     <row r="5" spans="1:3">
@@ -482,7 +482,7 @@
         <v>5</v>
       </c>
       <c r="B5">
-        <v>0.4991165459555556</v>
+        <v>0.4318931247</v>
       </c>
     </row>
     <row r="6" spans="1:3">
@@ -490,7 +490,7 @@
         <v>6</v>
       </c>
       <c r="B6">
-        <v>0.4652832126222223</v>
+        <v>0.42809348495</v>
       </c>
     </row>
     <row r="7" spans="1:3">
@@ -498,7 +498,7 @@
         <v>7</v>
       </c>
       <c r="B7">
-        <v>0.3075239533666667</v>
+        <v>0.32199434665</v>
       </c>
     </row>
     <row r="8" spans="1:3">
@@ -506,7 +506,7 @@
         <v>8</v>
       </c>
       <c r="B8">
-        <v>0.3216342544</v>
+        <v>0.3024936521</v>
       </c>
     </row>
     <row r="9" spans="1:3">
@@ -514,7 +514,7 @@
         <v>9</v>
       </c>
       <c r="B9">
-        <v>0.3199110681222223</v>
+        <v>0.4139936521</v>
       </c>
     </row>
     <row r="10" spans="1:3">
@@ -522,7 +522,7 @@
         <v>10</v>
       </c>
       <c r="B10">
-        <v>0.3560856042</v>
+        <v>0.5844936520999999</v>
       </c>
     </row>
     <row r="11" spans="1:3">
@@ -530,7 +530,7 @@
         <v>11</v>
       </c>
       <c r="B11">
-        <v>0.3899155148777778</v>
+        <v>1.13354653675</v>
       </c>
     </row>
     <row r="12" spans="1:3">
@@ -538,7 +538,7 @@
         <v>12</v>
       </c>
       <c r="B12">
-        <v>0.4454676524444445</v>
+        <v>1.32479653675</v>
       </c>
     </row>
     <row r="13" spans="1:3">
@@ -546,7 +546,7 @@
         <v>13</v>
       </c>
       <c r="B13">
-        <v>0.4353855452777778</v>
+        <v>1.34379653675</v>
       </c>
     </row>
     <row r="14" spans="1:3">
@@ -554,7 +554,7 @@
         <v>14</v>
       </c>
       <c r="B14">
-        <v>0.399966665888889</v>
+        <v>1.42104653675</v>
       </c>
     </row>
     <row r="15" spans="1:3">
@@ -562,7 +562,7 @@
         <v>15</v>
       </c>
       <c r="B15">
-        <v>0.4285519508888889</v>
+        <v>1.40779653675</v>
       </c>
     </row>
     <row r="16" spans="1:3">
@@ -570,7 +570,7 @@
         <v>16</v>
       </c>
       <c r="B16">
-        <v>0.4388517595333333</v>
+        <v>1.50725</v>
       </c>
     </row>
     <row r="17" spans="1:2">
@@ -578,7 +578,7 @@
         <v>17</v>
       </c>
       <c r="B17">
-        <v>0.4388029449888889</v>
+        <v>1.5722817274</v>
       </c>
     </row>
     <row r="18" spans="1:2">
@@ -586,7 +586,7 @@
         <v>18</v>
       </c>
       <c r="B18">
-        <v>0.5302017151666666</v>
+        <v>1.4477182726</v>
       </c>
     </row>
     <row r="19" spans="1:2">
@@ -594,7 +594,7 @@
         <v>19</v>
       </c>
       <c r="B19">
-        <v>1.2324648835</v>
+        <v>1.8672604107</v>
       </c>
     </row>
     <row r="20" spans="1:2">
@@ -602,7 +602,7 @@
         <v>20</v>
       </c>
       <c r="B20">
-        <v>1.441793955622222</v>
+        <v>2.0404983999</v>
       </c>
     </row>
     <row r="21" spans="1:2">
@@ -610,7 +610,7 @@
         <v>21</v>
       </c>
       <c r="B21">
-        <v>1.222121927677778</v>
+        <v>1.8135516456</v>
       </c>
     </row>
     <row r="22" spans="1:2">
@@ -618,7 +618,7 @@
         <v>22</v>
       </c>
       <c r="B22">
-        <v>1.010358723111111</v>
+        <v>1.3557847818</v>
       </c>
     </row>
     <row r="23" spans="1:2">
@@ -626,7 +626,7 @@
         <v>23</v>
       </c>
       <c r="B23">
-        <v>0.7397761072222223</v>
+        <v>0.9550238095</v>
       </c>
     </row>
     <row r="24" spans="1:2">
@@ -634,7 +634,7 @@
         <v>24</v>
       </c>
       <c r="B24">
-        <v>0.6040437839222224</v>
+        <v>0.8125238095</v>
       </c>
     </row>
     <row r="25" spans="1:2">
@@ -642,7 +642,7 @@
         <v>25</v>
       </c>
       <c r="B25">
-        <v>0.5565159829555556</v>
+        <v>0.7765238095</v>
       </c>
     </row>
     <row r="26" spans="1:2">
@@ -650,7 +650,7 @@
         <v>26</v>
       </c>
       <c r="B26">
-        <v>0.5200575150777778</v>
+        <v>0.7483097616000001</v>
       </c>
     </row>
   </sheetData>
